--- a/analyses/BCA_analysis/2017-5-25_Plate_1_BCA_analyses.xlsx
+++ b/analyses/BCA_analysis/2017-5-25_Plate_1_BCA_analyses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,6 +522,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1107,7 +1113,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -1119,7 +1125,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1224,8 +1230,7 @@
             </c:extLst>
           </c:dLbls>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1247,25 +1252,73 @@
                 <c:pt idx="0">
                   <c:v>1.116333333333333</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.904333333333333</c:v>
+                  <c:v>0.777666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.723666666666666</c:v>
+                  <c:v>0.597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.539</c:v>
+                  <c:v>0.412333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.333666666666667</c:v>
+                  <c:v>0.207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.0936666666666667</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.128666666666667</c:v>
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1314,11 +1367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-721946336"/>
-        <c:axId val="-721938672"/>
+        <c:axId val="-1482856576"/>
+        <c:axId val="-1482848000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-721946336"/>
+        <c:axId val="-1482856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,13 +1412,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-721938672"/>
+        <c:crossAx val="-1482848000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-721938672"/>
+        <c:axId val="-1482848000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1411,7 +1464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-721946336"/>
+        <c:crossAx val="-1482856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1463,20 +1516,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:K108" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:K108" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A12:K108"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Well" dataDxfId="11"/>
-    <tableColumn id="2" name="Sample" dataDxfId="10"/>
-    <tableColumn id="3" name="Replicate" dataDxfId="9"/>
-    <tableColumn id="4" name="Absorbance measured at 562 nm " dataDxfId="8"/>
-    <tableColumn id="5" name="Average absorbance at 562 nm" dataDxfId="7"/>
-    <tableColumn id="6" name="Blank-corrected absorbance at 562 nm" dataDxfId="6"/>
-    <tableColumn id="7" name="BSA concentration (µg/µL)" dataDxfId="5"/>
-    <tableColumn id="8" name="Dilution correction factor" dataDxfId="4"/>
-    <tableColumn id="9" name="Corrected BSA concentration (µg/µL)" dataDxfId="3"/>
-    <tableColumn id="10" name="µL of sample required for 100 µg protein" dataDxfId="2"/>
-    <tableColumn id="11" name="µL of 50mM NH4HCO3 in 6M urea to add" dataDxfId="1"/>
+    <tableColumn id="1" name="Well" dataDxfId="10"/>
+    <tableColumn id="2" name="Sample" dataDxfId="9"/>
+    <tableColumn id="3" name="Replicate" dataDxfId="8"/>
+    <tableColumn id="4" name="Absorbance measured at 562 nm " dataDxfId="7"/>
+    <tableColumn id="5" name="Average absorbance at 562 nm" dataDxfId="6"/>
+    <tableColumn id="6" name="Blank-corrected absorbance at 562 nm" dataDxfId="5"/>
+    <tableColumn id="7" name="BSA concentration (µg/µL)" dataDxfId="4"/>
+    <tableColumn id="8" name="Dilution correction factor" dataDxfId="3"/>
+    <tableColumn id="9" name="Corrected BSA concentration (µg/µL)" dataDxfId="2"/>
+    <tableColumn id="10" name="µL of sample required for 100 µg protein" dataDxfId="1"/>
+    <tableColumn id="11" name="µL of 50mM NH4HCO3 in 6M urea to add" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,9 +1857,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2277,7 +2335,10 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F49" si="0">(E14-E35)</f>
+        <v>0</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2298,7 +2359,10 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2323,8 +2387,8 @@
         <v>0.90433333333333332</v>
       </c>
       <c r="F16" s="9">
-        <f>E16-E36</f>
-        <v>0.90433333333333332</v>
+        <f>(E16-E34)</f>
+        <v>0.77766666666666662</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -2356,7 +2420,10 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2377,7 +2444,10 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2402,8 +2472,8 @@
         <v>0.72366666666666657</v>
       </c>
       <c r="F19" s="9">
-        <f>E19-E36</f>
-        <v>0.72366666666666657</v>
+        <f>(E19-E34)</f>
+        <v>0.59699999999999986</v>
       </c>
       <c r="G19" s="9">
         <v>0.75</v>
@@ -2435,7 +2505,10 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2456,7 +2529,10 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2481,8 +2557,8 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="F22" s="9">
-        <f>E22-E36</f>
-        <v>0.53900000000000003</v>
+        <f>(E22-E34)</f>
+        <v>0.41233333333333333</v>
       </c>
       <c r="G22" s="9">
         <v>0.5</v>
@@ -2514,7 +2590,10 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2535,7 +2614,10 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2560,8 +2642,8 @@
         <v>0.33366666666666672</v>
       </c>
       <c r="F25" s="9">
-        <f>E25-E36</f>
-        <v>0.33366666666666672</v>
+        <f>(E25-E34)</f>
+        <v>0.20700000000000005</v>
       </c>
       <c r="G25" s="9">
         <v>0.25</v>
@@ -2593,7 +2675,10 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2614,7 +2699,10 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2639,7 +2727,7 @@
         <v>0.22033333333333335</v>
       </c>
       <c r="F28" s="9">
-        <f>E28-E34</f>
+        <f>(E28-E34)</f>
         <v>9.3666666666666676E-2</v>
       </c>
       <c r="G28" s="9">
@@ -2672,7 +2760,10 @@
         <v>0.217</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2693,7 +2784,10 @@
         <v>0.22</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2718,8 +2812,8 @@
         <v>0.12866666666666668</v>
       </c>
       <c r="F31" s="9">
-        <f>E31-E35</f>
-        <v>0.12866666666666668</v>
+        <f>(E31-E34)</f>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="G31" s="9">
         <v>2.5000000000000001E-2</v>
@@ -2751,7 +2845,10 @@
         <v>0.129</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -2772,7 +2869,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -2797,7 +2897,7 @@
         <v>0.12666666666666668</v>
       </c>
       <c r="F34" s="9">
-        <f>E34-E34</f>
+        <f>(E34-E34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="9">
@@ -2830,7 +2930,10 @@
         <v>0.121</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2851,7 +2954,10 @@
         <v>0.128</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -2876,27 +2982,27 @@
         <v>3.1560000000000001</v>
       </c>
       <c r="F37" s="9">
-        <f>E37-E36</f>
-        <v>3.1560000000000001</v>
+        <f>(E37-E34)</f>
+        <v>3.0293333333333337</v>
       </c>
       <c r="G37" s="9">
-        <f>0.6633*(F37^2)+1.3975*(F37)+0.0049</f>
-        <v>11.022100868800001</v>
+        <f>1.3166*(F37)+0.0089</f>
+        <v>3.9973202666666672</v>
       </c>
       <c r="H37" s="9">
         <v>3</v>
       </c>
       <c r="I37" s="9">
         <f>G37*3</f>
-        <v>33.066302606400001</v>
+        <v>11.991960800000001</v>
       </c>
       <c r="J37" s="9">
         <f>100/I37</f>
-        <v>3.0242268447832128</v>
+        <v>8.3389198537073259</v>
       </c>
       <c r="K37" s="9">
         <f>100-J37</f>
-        <v>96.975773155216785</v>
+        <v>91.661080146292676</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2913,8 +3019,14 @@
         <v>3.2320000000000002</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" ref="G38:G101" si="1">1.3166*(F38)+0.0089</f>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2934,8 +3046,14 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2959,27 +3077,27 @@
         <v>3.4083333333333332</v>
       </c>
       <c r="F40" s="9">
-        <f>E40-E36</f>
-        <v>3.4083333333333332</v>
+        <f>(E40-E34)</f>
+        <v>3.2816666666666667</v>
       </c>
       <c r="G40" s="9">
-        <f>0.6633*(F40^2)+1.3975*(F40)+0.0049</f>
-        <v>12.473426895833331</v>
+        <f t="shared" si="1"/>
+        <v>4.3295423333333334</v>
       </c>
       <c r="H40" s="9">
         <v>3</v>
       </c>
       <c r="I40" s="9">
         <f>G40*3</f>
-        <v>37.420280687499996</v>
+        <v>12.988627000000001</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" ref="J40" si="0">100/I40</f>
-        <v>2.6723476725123647</v>
+        <f t="shared" ref="J40" si="2">100/I40</f>
+        <v>7.6990431706137983</v>
       </c>
       <c r="K40" s="9">
         <f>100-J40</f>
-        <v>97.327652327487641</v>
+        <v>92.300956829386195</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2996,8 +3114,14 @@
         <v>3.476</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3017,8 +3141,14 @@
         <v>3.323</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3042,27 +3172,27 @@
         <v>3.6903333333333332</v>
       </c>
       <c r="F43" s="9">
-        <f>E43-E36</f>
-        <v>3.6903333333333332</v>
+        <f>(E43-E34)</f>
+        <v>3.5636666666666668</v>
       </c>
       <c r="G43" s="9">
-        <f>0.6633*(F43^2)+1.3975*(F43)+0.0049</f>
-        <v>14.195331755033331</v>
+        <f t="shared" si="1"/>
+        <v>4.7008235333333328</v>
       </c>
       <c r="H43" s="9">
         <v>3</v>
       </c>
       <c r="I43" s="9">
         <f>G43*3</f>
-        <v>42.585995265099996</v>
+        <v>14.102470599999998</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" ref="J43" si="1">100/I43</f>
-        <v>2.3481898069422797</v>
+        <f t="shared" ref="J43" si="3">100/I43</f>
+        <v>7.0909561052373338</v>
       </c>
       <c r="K43" s="9">
         <f>100-J43</f>
-        <v>97.651810193057713</v>
+        <v>92.909043894762661</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3079,8 +3209,14 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3100,8 +3236,14 @@
         <v>3.6059999999999999</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3125,27 +3267,27 @@
         <v>1.9243333333333332</v>
       </c>
       <c r="F46" s="9">
-        <f>E46-E36</f>
-        <v>1.9243333333333332</v>
+        <f>(E46-E34)</f>
+        <v>1.7976666666666665</v>
       </c>
       <c r="G46" s="9">
-        <f>0.6633*(F46^2)+1.3975*(F46)+0.0049</f>
-        <v>5.1503947206333329</v>
+        <f t="shared" si="1"/>
+        <v>2.3757079333333331</v>
       </c>
       <c r="H46" s="9">
         <v>3</v>
       </c>
       <c r="I46" s="9">
         <f>G46*3</f>
-        <v>15.451184161899999</v>
+        <v>7.1271237999999997</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" ref="J46" si="2">100/I46</f>
-        <v>6.4719958646653799</v>
+        <f t="shared" ref="J46" si="4">100/I46</f>
+        <v>14.030905426393744</v>
       </c>
       <c r="K46" s="9">
         <f>100-J46</f>
-        <v>93.528004135334626</v>
+        <v>85.969094573606256</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3162,8 +3304,14 @@
         <v>1.944</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3183,8 +3331,14 @@
         <v>1.863</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="F48" s="9">
+        <f>(E48-E69)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3208,27 +3362,27 @@
         <v>0.219</v>
       </c>
       <c r="F49" s="9">
-        <f>E49-E36</f>
-        <v>0.219</v>
+        <f>(E49-E34)</f>
+        <v>9.2333333333333323E-2</v>
       </c>
       <c r="G49" s="9">
-        <f>0.6633*(F49^2)+1.3975*(F49)+0.0049</f>
-        <v>0.34276503130000002</v>
+        <f t="shared" si="1"/>
+        <v>0.13046606666666666</v>
       </c>
       <c r="H49" s="9">
         <v>3</v>
       </c>
       <c r="I49" s="9">
         <f>G49*3</f>
-        <v>1.0282950939000002</v>
+        <v>0.39139819999999997</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" ref="J49" si="3">100/I49</f>
-        <v>97.248348838008567</v>
+        <f t="shared" ref="J49" si="5">100/I49</f>
+        <v>255.49427667270828</v>
       </c>
       <c r="K49" s="9">
         <f>100-J49</f>
-        <v>2.7516511619914326</v>
+        <v>-155.49427667270828</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3245,8 +3399,14 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="F50" s="9">
+        <f t="shared" ref="F38:F101" si="6">E50-E47</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3266,8 +3426,14 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="F51" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3291,27 +3457,27 @@
         <v>3.9196666666666666</v>
       </c>
       <c r="F52" s="9">
-        <f>E52-E36</f>
-        <v>3.9196666666666666</v>
+        <f>E52-E34</f>
+        <v>3.7930000000000001</v>
       </c>
       <c r="G52" s="9">
-        <f>0.6633*(F52^2)+1.3975*(F52)+0.0049</f>
-        <v>15.673433936366665</v>
+        <f t="shared" si="1"/>
+        <v>5.0027637999999994</v>
       </c>
       <c r="H52" s="9">
         <v>3</v>
       </c>
       <c r="I52" s="9">
         <f>G52*3</f>
-        <v>47.020301809099998</v>
+        <v>15.008291399999997</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" ref="J52" si="4">100/I52</f>
-        <v>2.1267409215277868</v>
+        <f t="shared" ref="J52" si="7">100/I52</f>
+        <v>6.6629836358321253</v>
       </c>
       <c r="K52" s="9">
         <f>100-J52</f>
-        <v>97.873259078472216</v>
+        <v>93.33701636416788</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3328,8 +3494,14 @@
         <v>3.9289999999999998</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="F53" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3349,8 +3521,14 @@
         <v>3.8050000000000002</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="F54" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3374,27 +3552,27 @@
         <v>2.765333333333333</v>
       </c>
       <c r="F55" s="9">
-        <f>E55-E36</f>
-        <v>2.765333333333333</v>
+        <f>E55-E34</f>
+        <v>2.6386666666666665</v>
       </c>
       <c r="G55" s="9">
-        <f>0.6633*(F55^2)+1.3975*(F55)+0.0049</f>
-        <v>8.9417538325333297</v>
+        <f t="shared" si="1"/>
+        <v>3.4829685333333331</v>
       </c>
       <c r="H55" s="9">
         <v>3</v>
       </c>
       <c r="I55" s="9">
         <f>G55*3</f>
-        <v>26.825261497599989</v>
+        <v>10.4489056</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" ref="J55" si="5">100/I55</f>
-        <v>3.7278294569075059</v>
+        <f t="shared" ref="J55" si="8">100/I55</f>
+        <v>9.5703802702552885</v>
       </c>
       <c r="K55" s="9">
         <f>100-J55</f>
-        <v>96.2721705430925</v>
+        <v>90.429619729744715</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3411,8 +3589,14 @@
         <v>2.82</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="F56" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3432,8 +3616,14 @@
         <v>2.7240000000000002</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="F57" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3457,27 +3647,27 @@
         <v>0.33299999999999996</v>
       </c>
       <c r="F58" s="9">
-        <f>E58-E36</f>
-        <v>0.33299999999999996</v>
+        <f>E58-E34</f>
+        <v>0.20633333333333329</v>
       </c>
       <c r="G58" s="9">
-        <f>0.6633*(F58^2)+1.3975*(F58)+0.0049</f>
-        <v>0.54382017369999991</v>
+        <f t="shared" si="1"/>
+        <v>0.28055846666666662</v>
       </c>
       <c r="H58" s="9">
         <v>3</v>
       </c>
       <c r="I58" s="9">
         <f>G58*3</f>
-        <v>1.6314605210999997</v>
+        <v>0.84167539999999985</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" ref="J58:J76" si="6">100/I58</f>
-        <v>61.294771590657781</v>
+        <f t="shared" ref="J58:J76" si="9">100/I58</f>
+        <v>118.81064838059901</v>
       </c>
       <c r="K58" s="9">
         <f>100-J58</f>
-        <v>38.705228409342219</v>
+        <v>-18.810648380599005</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3494,8 +3684,14 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="F59" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3515,8 +3711,14 @@
         <v>0.307</v>
       </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="F60" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3540,27 +3742,27 @@
         <v>1.3503333333333334</v>
       </c>
       <c r="F61" s="9">
-        <f>E61-E36</f>
-        <v>1.3503333333333334</v>
+        <f>E61-E34</f>
+        <v>1.2236666666666667</v>
       </c>
       <c r="G61" s="9">
-        <f>0.6633*(F61^2)+1.3975*(F61)+0.0049</f>
-        <v>3.1014521270333337</v>
+        <f t="shared" si="1"/>
+        <v>1.6199795333333333</v>
       </c>
       <c r="H61" s="9">
         <v>3</v>
       </c>
       <c r="I61" s="9">
         <f>G61*3</f>
-        <v>9.3043563811000016</v>
+        <v>4.8599385999999996</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="6"/>
-        <v>10.747653669321034</v>
+        <f t="shared" si="9"/>
+        <v>20.57639164412489</v>
       </c>
       <c r="K61" s="9">
         <f>100-J61</f>
-        <v>89.252346330678961</v>
+        <v>79.423608355875103</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3577,8 +3779,14 @@
         <v>1.361</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="F62" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3598,8 +3806,14 @@
         <v>1.321</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="F63" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3623,27 +3837,27 @@
         <v>3.2796666666666661</v>
       </c>
       <c r="F64" s="9">
-        <f>E64-E36</f>
-        <v>3.2796666666666661</v>
+        <f>E64-E34</f>
+        <v>3.1529999999999996</v>
       </c>
       <c r="G64" s="9">
-        <f>0.6633*(F64^2)+1.3975*(F64)+0.0049</f>
-        <v>11.722830544366662</v>
+        <f t="shared" si="1"/>
+        <v>4.1601397999999987</v>
       </c>
       <c r="H64" s="9">
         <v>3</v>
       </c>
       <c r="I64" s="9">
         <f>G64*3</f>
-        <v>35.16849163309999</v>
+        <v>12.480419399999995</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="6"/>
-        <v>2.843454335297158</v>
+        <f t="shared" si="9"/>
+        <v>8.0125512448724301</v>
       </c>
       <c r="K64" s="9">
         <f>100-J64</f>
-        <v>97.156545664702847</v>
+        <v>91.987448755127573</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3660,8 +3874,14 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="F65" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3681,8 +3901,14 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="F66" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3706,27 +3932,27 @@
         <v>2.749333333333333</v>
       </c>
       <c r="F67" s="9">
-        <f>E67-E36</f>
-        <v>2.749333333333333</v>
+        <f>E67-E34</f>
+        <v>2.6226666666666665</v>
       </c>
       <c r="G67" s="9">
-        <f>0.6633*(F67^2)+1.3975*(F67)+0.0049</f>
-        <v>8.8608677781333309</v>
+        <f t="shared" si="1"/>
+        <v>3.4619029333333331</v>
       </c>
       <c r="H67" s="9">
         <v>3</v>
       </c>
       <c r="I67" s="9">
         <f>G67*3</f>
-        <v>26.582603334399991</v>
+        <v>10.3857088</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="6"/>
-        <v>3.7618587894509221</v>
+        <f t="shared" si="9"/>
+        <v>9.6286158148397156</v>
       </c>
       <c r="K67" s="9">
         <f>100-J67</f>
-        <v>96.238141210549074</v>
+        <v>90.371384185160281</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3743,8 +3969,14 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="F68" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,8 +3996,14 @@
         <v>2.669</v>
       </c>
       <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="F69" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3785,31 +4023,31 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="E70" s="9">
-        <f t="shared" ref="E70" si="7">AVERAGE(D70:D72)</f>
+        <f t="shared" ref="E70" si="10">AVERAGE(D70:D72)</f>
         <v>1.3976666666666666</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" ref="F70" si="8">E70-E39</f>
-        <v>1.3976666666666666</v>
+        <f>E70-E34</f>
+        <v>1.2709999999999999</v>
       </c>
       <c r="G70" s="9">
-        <f t="shared" ref="G70" si="9">0.6633*(F70^2)+1.3975*(F70)+0.0049</f>
-        <v>3.2538772179666666</v>
+        <f t="shared" si="1"/>
+        <v>1.6822985999999998</v>
       </c>
       <c r="H70" s="9">
         <v>3</v>
       </c>
       <c r="I70" s="9">
-        <f t="shared" ref="I70:I90" si="10">G70*3</f>
-        <v>9.7616316539000003</v>
+        <f t="shared" ref="I70" si="11">G70*3</f>
+        <v>5.0468957999999997</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="6"/>
-        <v>10.244189039856638</v>
+        <f t="shared" si="9"/>
+        <v>19.814159824738208</v>
       </c>
       <c r="K70" s="9">
-        <f t="shared" ref="K70" si="11">100-J70</f>
-        <v>89.755810960143364</v>
+        <f t="shared" ref="K70" si="12">100-J70</f>
+        <v>80.185840175261788</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3826,8 +4064,14 @@
         <v>1.3759999999999999</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="F71" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3847,8 +4091,14 @@
         <v>1.391</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="F72" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3868,31 +4118,31 @@
         <v>1.972</v>
       </c>
       <c r="E73" s="9">
-        <f t="shared" ref="E73" si="12">AVERAGE(D73:D75)</f>
+        <f t="shared" ref="E73" si="13">AVERAGE(D73:D75)</f>
         <v>1.9643333333333333</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" ref="F73" si="13">E73-E42</f>
-        <v>1.9643333333333333</v>
+        <f>E73-E34</f>
+        <v>1.8376666666666666</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" ref="G73" si="14">0.6633*(F73^2)+1.3975*(F73)+0.0049</f>
-        <v>5.309468824633333</v>
+        <f t="shared" si="1"/>
+        <v>2.4283719333333331</v>
       </c>
       <c r="H73" s="9">
         <v>3</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" ref="I73:I90" si="15">G73*3</f>
-        <v>15.928406473899999</v>
+        <f t="shared" ref="I73" si="14">G73*3</f>
+        <v>7.2851157999999998</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="6"/>
-        <v>6.2780919211132771</v>
+        <f t="shared" si="9"/>
+        <v>13.726617770440932</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" ref="K73" si="16">100-J73</f>
-        <v>93.721908078886727</v>
+        <f t="shared" ref="K73" si="15">100-J73</f>
+        <v>86.273382229559076</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3909,8 +4159,14 @@
         <v>1.958</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="F74" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3930,8 +4186,14 @@
         <v>1.9630000000000001</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="F75" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3951,31 +4213,31 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="E76" s="9">
-        <f t="shared" ref="E76" si="17">AVERAGE(D76:D78)</f>
+        <f t="shared" ref="E76" si="16">AVERAGE(D76:D78)</f>
         <v>0.90800000000000003</v>
       </c>
       <c r="F76" s="9">
-        <f t="shared" ref="F76" si="18">E76-E45</f>
-        <v>0.90800000000000003</v>
+        <f>E76-E34</f>
+        <v>0.78133333333333332</v>
       </c>
       <c r="G76" s="9">
-        <f t="shared" ref="G76" si="19">0.6633*(F76^2)+1.3975*(F76)+0.0049</f>
-        <v>1.8206969712000001</v>
+        <f t="shared" si="1"/>
+        <v>1.0376034666666665</v>
       </c>
       <c r="H76" s="9">
         <v>3</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" ref="I76:I90" si="20">G76*3</f>
-        <v>5.4620909136</v>
+        <f t="shared" ref="I76" si="17">G76*3</f>
+        <v>3.1128103999999994</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="6"/>
-        <v>18.30800724151462</v>
+        <f t="shared" si="9"/>
+        <v>32.125310298372177</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" ref="K76" si="21">100-J76</f>
-        <v>81.691992758485384</v>
+        <f t="shared" ref="K76" si="18">100-J76</f>
+        <v>67.87468970162783</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3992,8 +4254,14 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="F77" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,8 +4281,14 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="F78" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,31 +4308,31 @@
         <v>0.437</v>
       </c>
       <c r="E79" s="9">
-        <f t="shared" ref="E79" si="22">AVERAGE(D79:D81)</f>
+        <f t="shared" ref="E79" si="19">AVERAGE(D79:D81)</f>
         <v>0.43366666666666664</v>
       </c>
       <c r="F79" s="9">
-        <f t="shared" ref="F79" si="23">E79-E48</f>
-        <v>0.43366666666666664</v>
+        <f>E79-E34</f>
+        <v>0.30699999999999994</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" ref="G79" si="24">0.6633*(F79^2)+1.3975*(F79)+0.0049</f>
-        <v>0.73569386036666662</v>
+        <f t="shared" si="1"/>
+        <v>0.41309619999999991</v>
       </c>
       <c r="H79" s="9">
         <v>3</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" ref="I79:I90" si="25">G79*3</f>
-        <v>2.2070815810999997</v>
+        <f t="shared" ref="I79" si="20">G79*3</f>
+        <v>1.2392885999999996</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" ref="J79:J94" si="26">100/I79</f>
-        <v>45.308701253426456</v>
+        <f t="shared" ref="J79:J94" si="21">100/I79</f>
+        <v>80.691454758802777</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" ref="K79" si="27">100-J79</f>
-        <v>54.691298746573544</v>
+        <f t="shared" ref="K79" si="22">100-J79</f>
+        <v>19.308545241197223</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4075,8 +4349,14 @@
         <v>0.438</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="F80" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4096,8 +4376,14 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="F81" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4117,31 +4403,31 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="E82" s="9">
-        <f t="shared" ref="E82" si="28">AVERAGE(D82:D84)</f>
+        <f t="shared" ref="E82" si="23">AVERAGE(D82:D84)</f>
         <v>0.76100000000000001</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" ref="F82" si="29">E82-E51</f>
-        <v>0.76100000000000001</v>
+        <f>E82-E34</f>
+        <v>0.6343333333333333</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" ref="G82" si="30">0.6633*(F82^2)+1.3975*(F82)+0.0049</f>
-        <v>1.4525284592999999</v>
+        <f t="shared" si="1"/>
+        <v>0.84406326666666665</v>
       </c>
       <c r="H82" s="9">
         <v>3</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" ref="I82:I90" si="31">G82*3</f>
-        <v>4.3575853778999996</v>
+        <f t="shared" ref="I82" si="24">G82*3</f>
+        <v>2.5321897999999998</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" si="26"/>
-        <v>22.948488974458567</v>
+        <f t="shared" si="21"/>
+        <v>39.491510470502647</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" ref="K82" si="32">100-J82</f>
-        <v>77.05151102554143</v>
+        <f t="shared" ref="K82" si="25">100-J82</f>
+        <v>60.508489529497353</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4158,8 +4444,14 @@
         <v>0.82</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="F83" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4179,8 +4471,14 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="F84" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4200,23 +4498,23 @@
         <v>0.125</v>
       </c>
       <c r="E85" s="9">
-        <f t="shared" ref="E85" si="33">AVERAGE(D85:D87)</f>
+        <f t="shared" ref="E85" si="26">AVERAGE(D85:D87)</f>
         <v>0.12933333333333333</v>
       </c>
       <c r="F85" s="9">
-        <f t="shared" ref="F85" si="34">E85-E54</f>
-        <v>0.12933333333333333</v>
+        <f>E85-E34</f>
+        <v>2.6666666666666505E-3</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" ref="G85" si="35">0.6633*(F85^2)+1.3975*(F85)+0.0049</f>
-        <v>0.19673842613333331</v>
+        <f t="shared" si="1"/>
+        <v>1.2410933333333311E-2</v>
       </c>
       <c r="H85" s="9">
         <v>3</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" ref="I85:I90" si="36">G85*3</f>
-        <v>0.59021527839999988</v>
+        <f t="shared" ref="I85" si="27">G85*3</f>
+        <v>3.7232799999999934E-2</v>
       </c>
       <c r="J85" s="9">
         <v>100</v>
@@ -4239,8 +4537,14 @@
         <v>0.13</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="F86" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4260,8 +4564,14 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="F87" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4281,31 +4591,31 @@
         <v>1.6559999999999999</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" ref="E88" si="37">AVERAGE(D88:D90)</f>
+        <f t="shared" ref="E88" si="28">AVERAGE(D88:D90)</f>
         <v>1.6236666666666666</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" ref="F88:F106" si="38">E88-E57</f>
-        <v>1.6236666666666666</v>
+        <f>E88-E34</f>
+        <v>1.4969999999999999</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" ref="G88" si="39">0.6633*(F88^2)+1.3975*(F88)+0.0049</f>
-        <v>4.0226276083666663</v>
+        <f t="shared" si="1"/>
+        <v>1.9798501999999998</v>
       </c>
       <c r="H88" s="9">
         <v>3</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" ref="I88:I106" si="40">G88*3</f>
-        <v>12.0678828251</v>
+        <f t="shared" ref="I88:I106" si="29">G88*3</f>
+        <v>5.9395505999999996</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="26"/>
-        <v>8.2864576536996122</v>
+        <f t="shared" si="21"/>
+        <v>16.836290610942857</v>
       </c>
       <c r="K88" s="9">
-        <f t="shared" ref="K85:K97" si="41">100-J88</f>
-        <v>91.713542346300386</v>
+        <f t="shared" ref="K88:K97" si="30">100-J88</f>
+        <v>83.163709389057146</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4322,8 +4632,14 @@
         <v>1.585</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="F89" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,8 +4659,14 @@
         <v>1.63</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,31 +4686,31 @@
         <v>2.39</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" ref="E91:E106" si="42">AVERAGE(D91:D93)</f>
+        <f t="shared" ref="E91:E106" si="31">AVERAGE(D91:D93)</f>
         <v>2.4086666666666665</v>
       </c>
       <c r="F91" s="9">
-        <f t="shared" si="38"/>
-        <v>2.4086666666666665</v>
+        <f>E91-E34</f>
+        <v>2.282</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" ref="G91" si="43">0.6633*(F91^2)+1.3975*(F91)+0.0049</f>
-        <v>7.2192627678666659</v>
+        <f t="shared" si="1"/>
+        <v>3.0133812</v>
       </c>
       <c r="H91" s="9">
         <v>3</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="40"/>
-        <v>21.657788303599997</v>
+        <f t="shared" si="29"/>
+        <v>9.0401436000000004</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="26"/>
-        <v>4.6172766396178053</v>
+        <f t="shared" si="21"/>
+        <v>11.061771186909022</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="41"/>
-        <v>95.382723360382201</v>
+        <f t="shared" si="30"/>
+        <v>88.938228813090973</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -4405,8 +4727,14 @@
         <v>2.4</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="F92" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4426,8 +4754,14 @@
         <v>2.4359999999999999</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4447,31 +4781,31 @@
         <v>3.5289999999999999</v>
       </c>
       <c r="E94" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>3.5276666666666663</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="38"/>
-        <v>3.5276666666666663</v>
+        <f>E94-E34</f>
+        <v>3.4009999999999998</v>
       </c>
       <c r="G94" s="9">
-        <f t="shared" ref="G94" si="44">0.6633*(F94^2)+1.3975*(F94)+0.0049</f>
-        <v>13.189205985966664</v>
+        <f t="shared" si="1"/>
+        <v>4.486656599999999</v>
       </c>
       <c r="H94" s="9">
         <v>3</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="40"/>
-        <v>39.567617957899991</v>
+        <f t="shared" si="29"/>
+        <v>13.459969799999996</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="26"/>
-        <v>2.5273191857644846</v>
+        <f t="shared" si="21"/>
+        <v>7.4294371745172878</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="41"/>
-        <v>97.472680814235517</v>
+        <f t="shared" si="30"/>
+        <v>92.57056282548271</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -4488,8 +4822,14 @@
         <v>3.5489999999999999</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="F95" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4509,8 +4849,14 @@
         <v>3.5049999999999999</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="F96" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4530,31 +4876,31 @@
         <v>2.4209999999999998</v>
       </c>
       <c r="E97" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.4333333333333331</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="38"/>
-        <v>2.4333333333333331</v>
+        <f>E97-E34</f>
+        <v>2.3066666666666666</v>
       </c>
       <c r="G97" s="9">
-        <f t="shared" ref="G97:G106" si="45">0.6633*(F97^2)+1.3975*(F97)+0.0049</f>
-        <v>7.3329563333333327</v>
+        <f t="shared" si="1"/>
+        <v>3.0458573333333332</v>
       </c>
       <c r="H97" s="9">
         <v>3</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="40"/>
-        <v>21.998868999999999</v>
+        <f t="shared" si="29"/>
+        <v>9.1375719999999987</v>
       </c>
       <c r="J97" s="9">
-        <f t="shared" ref="J97" si="46">100/I97</f>
-        <v>4.5456882351542713</v>
+        <f t="shared" ref="J97" si="32">100/I97</f>
+        <v>10.943826215541723</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="41"/>
-        <v>95.454311764845727</v>
+        <f t="shared" si="30"/>
+        <v>89.056173784458281</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4571,8 +4917,14 @@
         <v>2.4620000000000002</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,8 +4944,14 @@
         <v>2.4169999999999998</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="F99" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,31 +4971,31 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="E100" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.32733333333333331</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="38"/>
-        <v>0.32733333333333331</v>
+        <f>E100-E34</f>
+        <v>0.20066666666666663</v>
       </c>
       <c r="G100" s="9">
-        <f t="shared" si="45"/>
-        <v>0.53341901213333331</v>
+        <f t="shared" si="1"/>
+        <v>0.27309773333333331</v>
       </c>
       <c r="H100" s="9">
         <v>3</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="40"/>
-        <v>1.6002570363999999</v>
+        <f t="shared" si="29"/>
+        <v>0.81929319999999994</v>
       </c>
       <c r="J100" s="9">
-        <f t="shared" ref="J100:J106" si="47">100/I100</f>
-        <v>62.489961128347147</v>
+        <f t="shared" ref="J100:J106" si="33">100/I100</f>
+        <v>122.05642619760546</v>
       </c>
       <c r="K100" s="9">
-        <f t="shared" ref="K100" si="48">100-J100</f>
-        <v>37.510038871652853</v>
+        <f t="shared" ref="K100" si="34">100-J100</f>
+        <v>-22.056426197605461</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4654,8 +5012,14 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="F101" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4675,8 +5039,14 @@
         <v>0.317</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="F102" s="9">
+        <f t="shared" ref="F102:F106" si="35">E102-E99</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="9">
+        <f t="shared" ref="G102:G108" si="36">1.3166*(F102)+0.0089</f>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4696,31 +5066,31 @@
         <v>1.3680000000000001</v>
       </c>
       <c r="E103" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.3089999999999999</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="38"/>
-        <v>1.3089999999999999</v>
+        <f>E103-E34</f>
+        <v>1.1823333333333332</v>
       </c>
       <c r="G103" s="9">
-        <f t="shared" si="45"/>
-        <v>2.9707794473</v>
+        <f t="shared" si="36"/>
+        <v>1.5655600666666665</v>
       </c>
       <c r="H103" s="9">
         <v>3</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="40"/>
-        <v>8.9123383419</v>
+        <f t="shared" si="29"/>
+        <v>4.6966801999999994</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="47"/>
-        <v>11.220399873046251</v>
+        <f t="shared" si="33"/>
+        <v>21.291634887127298</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" ref="K103:K106" si="49">100-J103</f>
-        <v>88.779600126953753</v>
+        <f t="shared" ref="K103:K106" si="37">100-J103</f>
+        <v>78.708365112872698</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4737,8 +5107,14 @@
         <v>1.3740000000000001</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="F104" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="9">
+        <f t="shared" si="36"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4758,8 +5134,14 @@
         <v>1.1850000000000001</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="F105" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <f t="shared" si="36"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4779,31 +5161,31 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="E106" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.60933333333333339</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="38"/>
-        <v>0.60933333333333339</v>
+        <f>E106-E34</f>
+        <v>0.48266666666666669</v>
       </c>
       <c r="G106" s="9">
-        <f t="shared" si="45"/>
-        <v>1.1027180741333333</v>
+        <f t="shared" si="36"/>
+        <v>0.6443789333333334</v>
       </c>
       <c r="H106" s="9">
         <v>3</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="40"/>
-        <v>3.3081542223999998</v>
+        <f t="shared" si="29"/>
+        <v>1.9331368000000002</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="47"/>
-        <v>30.228336793637148</v>
+        <f t="shared" si="33"/>
+        <v>51.729396491753711</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" si="49"/>
-        <v>69.771663206362859</v>
+        <f t="shared" si="37"/>
+        <v>48.270603508246289</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4821,7 +5203,10 @@
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="G107" s="9">
+        <f t="shared" si="36"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4842,15 +5227,19 @@
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="G108" s="9">
+        <f t="shared" si="36"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="36" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -6487,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" ref="I59:I79" si="10">G59*3</f>
+        <f t="shared" ref="I59" si="10">G59*3</f>
         <v>9.7616316539000003</v>
       </c>
       <c r="J59" s="11">
@@ -6570,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" ref="I62:I79" si="15">G62*3</f>
+        <f t="shared" ref="I62" si="15">G62*3</f>
         <v>15.928406473899999</v>
       </c>
       <c r="J62" s="10">
@@ -6653,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" ref="I65:I79" si="20">G65*3</f>
+        <f t="shared" ref="I65" si="20">G65*3</f>
         <v>5.4620909136</v>
       </c>
       <c r="J65" s="11">
@@ -6736,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" ref="I68:I79" si="25">G68*3</f>
+        <f t="shared" ref="I68" si="25">G68*3</f>
         <v>2.2070815810999997</v>
       </c>
       <c r="J68" s="10">
@@ -6819,7 +7208,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" ref="I71:I79" si="31">G71*3</f>
+        <f t="shared" ref="I71" si="31">G71*3</f>
         <v>4.3575853778999996</v>
       </c>
       <c r="J71" s="11">
@@ -6902,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" ref="I74:I79" si="36">G74*3</f>
+        <f t="shared" ref="I74" si="36">G74*3</f>
         <v>0.59021527839999988</v>
       </c>
       <c r="J74" s="10">
